--- a/data/37-intersection map LIN S2 EV1 Solution.xlsx
+++ b/data/37-intersection map LIN S2 EV1 Solution.xlsx
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>11.01078684444454</v>
       </c>
       <c r="G16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>17</v>
       </c>
       <c r="C34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>21</v>
       </c>
       <c r="C45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>26</v>
       </c>
       <c r="C52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>27</v>
       </c>
       <c r="C55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="C61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>27</v>
       </c>
       <c r="C63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>33</v>
       </c>
       <c r="C65" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>36</v>
       </c>
       <c r="C69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>35</v>
       </c>
       <c r="C72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>27</v>
       </c>
       <c r="C73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>36</v>
       </c>
       <c r="C75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>32</v>
       </c>
       <c r="C76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>34</v>
       </c>
       <c r="C78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>35</v>
       </c>
       <c r="C79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="C104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="C111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>14</v>
       </c>
       <c r="C114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>15</v>
       </c>
       <c r="C115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="C116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>16</v>
       </c>
       <c r="C117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>16</v>
       </c>
       <c r="C118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="C119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="C120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>17</v>
       </c>
       <c r="C121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>18</v>
       </c>
       <c r="C122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>19</v>
       </c>
       <c r="C127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="C129" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>23</v>
       </c>
       <c r="C131" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>27</v>
       </c>
       <c r="C141" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="C142" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>27</v>
       </c>
       <c r="C144" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="C149" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>31</v>
       </c>
       <c r="C152" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>33</v>
       </c>
       <c r="C154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>34</v>
       </c>
       <c r="C156" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="C157" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>35</v>
       </c>
       <c r="C158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>36</v>
       </c>
       <c r="C159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>36</v>
       </c>
       <c r="C160" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>37</v>
       </c>
       <c r="C161" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>37</v>
       </c>
       <c r="C162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>38</v>
       </c>
       <c r="C164" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
